--- a/Отчёт/EachGraphComparison - Second.xlsx
+++ b/Отчёт/EachGraphComparison - Second.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E64993A0-B0A5-42D9-96EF-E54D90649241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816673E-2877-4850-8C45-B0CD744E651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Second" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -26755,14 +26755,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27240,10 +27240,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB106" sqref="AB106"/>
     </sheetView>
   </sheetViews>

--- a/Отчёт/EachGraphComparison - Second.xlsx
+++ b/Отчёт/EachGraphComparison - Second.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816673E-2877-4850-8C45-B0CD744E651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E88A71-DA3B-45B7-8668-8AAA5C912924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,13 +67,13 @@
     <t>From 0 to 5</t>
   </si>
   <si>
-    <t>From 1 to 4100</t>
-  </si>
-  <si>
     <t>Almost Sorted</t>
   </si>
   <si>
     <t>Reversed sorted</t>
+  </si>
+  <si>
+    <t>From 0 to 4000</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2617,7 +2617,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4217,7 +4217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5813,7 +5813,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7413,7 +7413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9013,7 +9013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10613,7 +10613,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12213,7 +12213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13813,7 +13813,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15409,7 +15409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17005,7 +17005,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18601,7 +18601,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>From 1 to 4100</c:v>
+                  <c:v>From 0 to 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -27243,8 +27243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB106" sqref="AB106"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29099,7 +29099,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -29143,7 +29143,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -29187,7 +29187,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>300</v>
@@ -29231,7 +29231,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>400</v>
@@ -29275,7 +29275,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>500</v>
@@ -29319,7 +29319,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>600</v>
@@ -29363,7 +29363,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>700</v>
@@ -29407,7 +29407,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>800</v>
@@ -29451,7 +29451,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>900</v>
@@ -29495,7 +29495,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>1000</v>
@@ -29539,7 +29539,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>1100</v>
@@ -29583,7 +29583,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>1200</v>
@@ -29627,7 +29627,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55">
         <v>1300</v>
@@ -29671,7 +29671,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <v>1400</v>
@@ -29715,7 +29715,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B57">
         <v>1500</v>
@@ -29759,7 +29759,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B58">
         <v>1600</v>
@@ -29803,7 +29803,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>1700</v>
@@ -29847,7 +29847,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>1800</v>
@@ -29891,7 +29891,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B61">
         <v>1900</v>
@@ -29935,7 +29935,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B62">
         <v>2000</v>
@@ -29979,7 +29979,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <v>2100</v>
@@ -30023,7 +30023,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B64">
         <v>2200</v>
@@ -30067,7 +30067,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B65">
         <v>2300</v>
@@ -30111,7 +30111,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <v>2400</v>
@@ -30155,7 +30155,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B67">
         <v>2500</v>
@@ -30199,7 +30199,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B68">
         <v>2600</v>
@@ -30243,7 +30243,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <v>2700</v>
@@ -30287,7 +30287,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B70">
         <v>2800</v>
@@ -30331,7 +30331,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B71">
         <v>2900</v>
@@ -30375,7 +30375,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B72">
         <v>3000</v>
@@ -30419,7 +30419,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B73">
         <v>3100</v>
@@ -30463,7 +30463,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B74">
         <v>3200</v>
@@ -30507,7 +30507,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B75">
         <v>3300</v>
@@ -30551,7 +30551,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>3400</v>
@@ -30595,7 +30595,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>3500</v>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B78">
         <v>3600</v>
@@ -30683,7 +30683,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B79">
         <v>3700</v>
@@ -30727,7 +30727,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B80">
         <v>3800</v>
@@ -30771,7 +30771,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>3900</v>
@@ -30815,7 +30815,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B82">
         <v>4000</v>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B83">
         <v>4100</v>
@@ -30903,7 +30903,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84">
         <v>100</v>
@@ -30947,7 +30947,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>200</v>
@@ -30991,7 +30991,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>300</v>
@@ -31035,7 +31035,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87">
         <v>400</v>
@@ -31079,7 +31079,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>500</v>
@@ -31123,7 +31123,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <v>600</v>
@@ -31167,7 +31167,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90">
         <v>700</v>
@@ -31211,7 +31211,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>800</v>
@@ -31255,7 +31255,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92">
         <v>900</v>
@@ -31299,7 +31299,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -31343,7 +31343,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94">
         <v>1100</v>
@@ -31387,7 +31387,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>1200</v>
@@ -31431,7 +31431,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>1300</v>
@@ -31475,7 +31475,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>1400</v>
@@ -31519,7 +31519,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98">
         <v>1500</v>
@@ -31563,7 +31563,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99">
         <v>1600</v>
@@ -31607,7 +31607,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
         <v>1700</v>
@@ -31651,7 +31651,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
         <v>1800</v>
@@ -31695,7 +31695,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102">
         <v>1900</v>
@@ -31739,7 +31739,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
         <v>2000</v>
@@ -31783,7 +31783,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104">
         <v>2100</v>
@@ -31827,7 +31827,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
         <v>2200</v>
@@ -31871,7 +31871,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106">
         <v>2300</v>
@@ -31915,7 +31915,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107">
         <v>2400</v>
@@ -31959,7 +31959,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108">
         <v>2500</v>
@@ -32003,7 +32003,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109">
         <v>2600</v>
@@ -32047,7 +32047,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110">
         <v>2700</v>
@@ -32091,7 +32091,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111">
         <v>2800</v>
@@ -32135,7 +32135,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112">
         <v>2900</v>
@@ -32179,7 +32179,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113">
         <v>3000</v>
@@ -32223,7 +32223,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114">
         <v>3100</v>
@@ -32267,7 +32267,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <v>3200</v>
@@ -32311,7 +32311,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>3300</v>
@@ -32355,7 +32355,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <v>3400</v>
@@ -32399,7 +32399,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118">
         <v>3500</v>
@@ -32443,7 +32443,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>3600</v>
@@ -32487,7 +32487,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <v>3700</v>
@@ -32531,7 +32531,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121">
         <v>3800</v>
@@ -32575,7 +32575,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>3900</v>
@@ -32619,7 +32619,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>4000</v>
@@ -32663,7 +32663,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>4100</v>
@@ -32707,7 +32707,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125">
         <v>100</v>
@@ -32751,7 +32751,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B126">
         <v>200</v>
@@ -32795,7 +32795,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127">
         <v>300</v>
@@ -32839,7 +32839,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B128">
         <v>400</v>
@@ -32883,7 +32883,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B129">
         <v>500</v>
@@ -32927,7 +32927,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130">
         <v>600</v>
@@ -32971,7 +32971,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B131">
         <v>700</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B132">
         <v>800</v>
@@ -33059,7 +33059,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B133">
         <v>900</v>
@@ -33103,7 +33103,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B134">
         <v>1000</v>
@@ -33147,7 +33147,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B135">
         <v>1100</v>
@@ -33191,7 +33191,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B136">
         <v>1200</v>
@@ -33235,7 +33235,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137">
         <v>1300</v>
@@ -33279,7 +33279,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138">
         <v>1400</v>
@@ -33323,7 +33323,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139">
         <v>1500</v>
@@ -33367,7 +33367,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140">
         <v>1600</v>
@@ -33411,7 +33411,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141">
         <v>1700</v>
@@ -33455,7 +33455,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142">
         <v>1800</v>
@@ -33499,7 +33499,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B143">
         <v>1900</v>
@@ -33543,7 +33543,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144">
         <v>2000</v>
@@ -33587,7 +33587,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145">
         <v>2100</v>
@@ -33631,7 +33631,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B146">
         <v>2200</v>
@@ -33675,7 +33675,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147">
         <v>2300</v>
@@ -33719,7 +33719,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148">
         <v>2400</v>
@@ -33763,7 +33763,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149">
         <v>2500</v>
@@ -33807,7 +33807,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150">
         <v>2600</v>
@@ -33851,7 +33851,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151">
         <v>2700</v>
@@ -33895,7 +33895,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B152">
         <v>2800</v>
@@ -33939,7 +33939,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153">
         <v>2900</v>
@@ -33983,7 +33983,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B154">
         <v>3000</v>
@@ -34027,7 +34027,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B155">
         <v>3100</v>
@@ -34071,7 +34071,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B156">
         <v>3200</v>
@@ -34115,7 +34115,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B157">
         <v>3300</v>
@@ -34159,7 +34159,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B158">
         <v>3400</v>
@@ -34203,7 +34203,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159">
         <v>3500</v>
@@ -34247,7 +34247,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160">
         <v>3600</v>
@@ -34291,7 +34291,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B161">
         <v>3700</v>
@@ -34335,7 +34335,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B162">
         <v>3800</v>
@@ -34379,7 +34379,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B163">
         <v>3900</v>
@@ -34423,7 +34423,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B164">
         <v>4000</v>
@@ -34467,7 +34467,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B165">
         <v>4100</v>
